--- a/documenten/Uren/Urenverantwoording.xlsx
+++ b/documenten/Uren/Urenverantwoording.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\GitHub\MatrixReloaded\documenten\Uren\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="11235" windowHeight="9495"/>
+    <workbookView xWindow="20" yWindow="-20" windowWidth="33580" windowHeight="19120"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Taak</t>
   </si>
@@ -63,13 +63,25 @@
   </si>
   <si>
     <t>totaal</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Feature list backend</t>
+  </si>
+  <si>
+    <t>Eric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +89,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,25 +135,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="14">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,203 +489,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" ht="15">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="S1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" ht="15">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="S2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:24" ht="15">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="4">
+      <c r="J3" s="5">
         <f>SUM(H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="S3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" ht="15">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>42310</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3">
+      <c r="F5" s="7">
         <v>42310</v>
       </c>
-      <c r="H5" s="5">
+      <c r="G5" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="7">
+        <v>42310</v>
+      </c>
+      <c r="N5" s="9">
+        <v>4</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="7">
+        <v>42310</v>
+      </c>
+      <c r="U5" s="9">
+        <v>4</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" ht="15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7">
         <v>42317</v>
       </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7">
         <v>42317</v>
       </c>
-      <c r="H6" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="7">
+        <v>42317</v>
+      </c>
+      <c r="N6" s="9">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="7">
+        <v>42317</v>
+      </c>
+      <c r="U6" s="9">
+        <v>3</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" ht="15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7">
         <v>42324</v>
       </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7">
         <v>42324</v>
       </c>
-      <c r="H7" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="7">
+        <v>42324</v>
+      </c>
+      <c r="N7" s="9">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="7">
+        <v>42324</v>
+      </c>
+      <c r="U7" s="9">
+        <v>3</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" ht="15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7">
         <v>42328</v>
       </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7">
         <v>42328</v>
       </c>
-      <c r="H8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="F9" t="s">
+      <c r="G8" s="9">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="7">
+        <v>42328</v>
+      </c>
+      <c r="N8" s="9">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="7">
+        <v>42328</v>
+      </c>
+      <c r="U8" s="9">
+        <v>3</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" ht="15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5">
+      <c r="F9" s="7"/>
+      <c r="G9" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="9">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" ht="15">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="5">
+      <c r="F10" s="8"/>
+      <c r="G10" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="F11" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9">
+        <v>4</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" ht="15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="9">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9">
+        <v>6</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" ht="15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" ht="15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="2">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8">
         <f>SUM(C5+C6+C7+C8+C10)</f>
         <v>16</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -621,9 +987,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -633,8 +1004,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/documenten/Uren/Urenverantwoording.xlsx
+++ b/documenten/Uren/Urenverantwoording.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="-20" windowWidth="33580" windowHeight="19120"/>
+    <workbookView xWindow="15" yWindow="-15" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Taak</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Uren</t>
   </si>
   <si>
-    <t>Front-End Functies</t>
-  </si>
-  <si>
     <t xml:space="preserve">Davy </t>
   </si>
   <si>
@@ -72,6 +69,21 @@
   </si>
   <si>
     <t>Eric</t>
+  </si>
+  <si>
+    <t>Front-End Design + Html</t>
+  </si>
+  <si>
+    <t>Mockups Frontend</t>
+  </si>
+  <si>
+    <t>Mockups Backend</t>
+  </si>
+  <si>
+    <t>Front-End Functies Documentatie</t>
+  </si>
+  <si>
+    <t>30-11-2015 t/m 9-11-2015</t>
   </si>
 </sst>
 </file>
@@ -174,20 +186,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -489,33 +501,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
@@ -523,7 +537,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="L1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="4"/>
       <c r="N1" s="5"/>
@@ -531,7 +545,7 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="S1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="5"/>
@@ -539,14 +553,14 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:24" ht="15">
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
@@ -554,7 +568,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
@@ -562,7 +576,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="S2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="5"/>
@@ -570,12 +584,12 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" ht="15">
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
@@ -584,14 +598,14 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="5">
         <f>SUM(H:H)</f>
@@ -601,14 +615,14 @@
         <v>0</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="5">
         <v>24</v>
@@ -617,20 +631,20 @@
         <v>0</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X3" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="8"/>
@@ -653,9 +667,9 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:24" ht="15">
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7">
         <v>42310</v>
@@ -664,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7">
         <v>42310</v>
@@ -676,7 +690,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5" s="7">
         <v>42310</v>
@@ -688,7 +702,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="7">
         <v>42310</v>
@@ -700,7 +714,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:24" ht="15">
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="7">
         <v>42317</v>
@@ -739,7 +753,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:24" ht="15">
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="7">
         <v>42324</v>
@@ -778,7 +792,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:24" ht="15">
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="7">
         <v>42328</v>
@@ -817,12 +831,12 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:24" ht="15">
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="9">
@@ -832,7 +846,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="9">
@@ -848,18 +862,18 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:24" ht="15">
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="9">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9">
@@ -869,7 +883,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="9">
@@ -885,12 +899,16 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="1:24" ht="15">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9">
@@ -900,7 +918,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="9">
@@ -916,10 +934,14 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:24" ht="15">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
@@ -939,40 +961,67 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24" ht="15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9">
+        <v>8</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="15">
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="9"/>
       <c r="G14" s="1"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="15">
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" ht="15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="8">
-        <f>SUM(C5+C6+C7+C8+C10)</f>
-        <v>16</v>
-      </c>
-      <c r="H16" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9">
+        <f>SUM(C5:C13)</f>
+        <v>29</v>
+      </c>
+      <c r="H19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -987,7 +1036,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1004,7 +1053,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/documenten/Uren/Urenverantwoording.xlsx
+++ b/documenten/Uren/Urenverantwoording.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\GitHub\MatrixReloaded\documenten\Uren\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="15" yWindow="-15" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Taak</t>
   </si>
@@ -84,6 +89,15 @@
   </si>
   <si>
     <t>30-11-2015 t/m 9-11-2015</t>
+  </si>
+  <si>
+    <t>Database normaliseren</t>
+  </si>
+  <si>
+    <t>Database controleren</t>
+  </si>
+  <si>
+    <t>database migraties</t>
   </si>
 </sst>
 </file>
@@ -165,9 +179,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -182,6 +193,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -257,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,7 +306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +518,7 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,10 +526,10 @@
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -523,501 +537,515 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="S2" s="4" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="5">
-        <f>SUM(H:H)</f>
+      <c r="J3" s="4">
+        <f>SUM(G:G)</f>
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>24</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="U3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
+      <c r="V3" s="3"/>
+      <c r="W3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="X3" s="4">
         <v>24</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="5">
-        <v>24</v>
-      </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="8"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>42310</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>42310</v>
       </c>
       <c r="G5" s="9">
         <v>4</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="L5" s="4" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>42310</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>4</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="S5" s="4" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="S5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>42310</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="8">
         <v>4</v>
       </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6">
         <v>42317</v>
       </c>
-      <c r="C6" s="9">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="7">
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6">
         <v>42317</v>
       </c>
       <c r="G6" s="9">
         <v>3</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="7">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="6">
         <v>42317</v>
       </c>
-      <c r="N6" s="9">
-        <v>3</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="7">
+      <c r="N6" s="8">
+        <v>3</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="6">
         <v>42317</v>
       </c>
-      <c r="U6" s="9">
-        <v>3</v>
-      </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
+      <c r="U6" s="8">
+        <v>3</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6">
         <v>42324</v>
       </c>
-      <c r="C7" s="9">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="7">
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6">
         <v>42324</v>
       </c>
       <c r="G7" s="9">
         <v>3</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="7">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="6">
         <v>42324</v>
       </c>
-      <c r="N7" s="9">
-        <v>3</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="7">
+      <c r="N7" s="8">
+        <v>3</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="6">
         <v>42324</v>
       </c>
-      <c r="U7" s="9">
-        <v>3</v>
-      </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="U7" s="8">
+        <v>3</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6">
         <v>42328</v>
       </c>
-      <c r="C8" s="9">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="7">
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6">
         <v>42328</v>
       </c>
       <c r="G8" s="9">
         <v>3</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="7">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="6">
         <v>42328</v>
       </c>
-      <c r="N8" s="9">
-        <v>3</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="7">
+      <c r="N8" s="8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="6">
         <v>42328</v>
       </c>
-      <c r="U8" s="9">
-        <v>3</v>
-      </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="U8" s="8">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="E9" s="4" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="9">
         <v>4</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="L9" s="4" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="L9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="9">
+      <c r="M9" s="6"/>
+      <c r="N9" s="8">
         <v>2</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="9">
         <v>4</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="L10" s="4" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9">
+      <c r="M10" s="7"/>
+      <c r="N10" s="8">
         <v>4</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="9">
         <v>3</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="L11" s="4" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9">
+      <c r="M11" s="7"/>
+      <c r="N11" s="8">
         <v>6</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>8</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="9">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="8">
         <f>SUM(C5:C13)</f>
         <v>29</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documenten/Uren/Urenverantwoording.xlsx
+++ b/documenten/Uren/Urenverantwoording.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\GitHub\MatrixReloaded\documenten\Uren\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="15" yWindow="-15" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Taak</t>
   </si>
@@ -88,9 +83,6 @@
     <t>Front-End Functies Documentatie</t>
   </si>
   <si>
-    <t>30-11-2015 t/m 9-11-2015</t>
-  </si>
-  <si>
     <t>Database normaliseren</t>
   </si>
   <si>
@@ -98,6 +90,15 @@
   </si>
   <si>
     <t>database migraties</t>
+  </si>
+  <si>
+    <t>Onderzoek</t>
+  </si>
+  <si>
+    <t>30-11-2015 t/m 9-12-2015</t>
+  </si>
+  <si>
+    <t>4-1-2015 t/m 13-1-2015</t>
   </si>
 </sst>
 </file>
@@ -271,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +519,7 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="4">
@@ -984,13 +985,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" s="8">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -998,11 +999,17 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8">
+        <v>20</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
